--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/QuestSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
@@ -952,59 +952,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" width="13.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="11.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="24.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="24.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="9.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0">
+      <c r="C2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0">
+      <c r="C3" s="0">
         <v>1</v>
       </c>
     </row>
